--- a/杂项/分数统计.xlsx
+++ b/杂项/分数统计.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Olympiad in Informatics\杂项\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF486202-F211-4F96-8DB2-A66681BADCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC971AC-7338-4730-8190-5A19E67881EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accoders" sheetId="1" r:id="rId1"/>
     <sheet name="云斗学院" sheetId="2" r:id="rId2"/>
+    <sheet name="CodeForces" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Accoders 模拟赛统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,13 +171,45 @@
   <si>
     <t>2025济南夏令营模拟赛5</t>
   </si>
+  <si>
+    <t>过题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeForces div4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeForces div3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round1031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round1033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeForces div2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -216,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -278,19 +311,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,9 +340,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1576,6 +1629,587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>过题数趋势</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41847826086956524"/>
+          <c:y val="3.0612244897959183E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeForces!$Q$30:$Q$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32F1-47B4-92E2-EB6A1953E640}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1117055968"/>
+        <c:axId val="1117054528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1117055968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117054528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1117054528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117055968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>排名趋势</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3DA6-400B-AFD4-52570D9B4A15}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeForces!$T$30:$T$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.27560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41660000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DA6-400B-AFD4-52570D9B4A15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1334766032"/>
+        <c:axId val="1334764112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1334766032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334764112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1334764112"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334766032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1733,6 +2367,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3282,6 +3996,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3951,6 +5697,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F113A16F-FB66-F7F7-F9DB-991E64738220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7810EC27-4FA2-75F9-5683-6EA148F9778D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4214,10 +6037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4232,484 +6055,435 @@
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>45724</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>128</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>600</v>
       </c>
-      <c r="E3" s="5">
-        <f>ROUND(C3/D3,4)</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E16" si="0">ROUND(C3/D3,4)</f>
         <v>0.21329999999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>47</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>60</v>
       </c>
-      <c r="H3" s="5">
-        <f>ROUND(F3/G3,4)</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H16" si="1">ROUND(F3/G3,4)</f>
         <v>0.7833</v>
       </c>
-      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>45731</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>159</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>600</v>
       </c>
-      <c r="E4" s="5">
-        <f>ROUND(C4/D4,4)</f>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>36</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>51</v>
       </c>
-      <c r="H4" s="5">
-        <f>ROUND(F4/G4,4)</f>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
         <v>0.70589999999999997</v>
       </c>
-      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>45759</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>212</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>600</v>
       </c>
-      <c r="E5" s="5">
-        <f>ROUND(C5/D5,4)</f>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
         <v>0.3533</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>30</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>49</v>
       </c>
-      <c r="H5" s="5">
-        <f>ROUND(F5/G5,4)</f>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
         <v>0.61219999999999997</v>
       </c>
-      <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>45766</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>112</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>600</v>
       </c>
-      <c r="E6" s="5">
-        <f>ROUND(C6/D6,4)</f>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
         <v>0.1867</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>39</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>49</v>
       </c>
-      <c r="H6" s="5">
-        <f>ROUND(F6/G6,4)</f>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
         <v>0.79590000000000005</v>
       </c>
-      <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>45787</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>158</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>600</v>
       </c>
-      <c r="E7" s="5">
-        <f>ROUND(C7/D7,4)</f>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
         <v>0.26329999999999998</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>31</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="H7" s="5">
-        <f>ROUND(F7/G7,4)</f>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>45801</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>371</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>600</v>
       </c>
-      <c r="E8" s="5">
-        <f>ROUND(C8/D8,4)</f>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
         <v>0.61829999999999996</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>17</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>41</v>
       </c>
-      <c r="H8" s="5">
-        <f>ROUND(F8/G8,4)</f>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
         <v>0.41460000000000002</v>
       </c>
-      <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>45858</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>165</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>400</v>
       </c>
-      <c r="E9" s="5">
-        <f>ROUND(C9/D9,4)</f>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
         <v>0.41249999999999998</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>26</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>64</v>
       </c>
-      <c r="H9" s="5">
-        <f>ROUND(F9/G9,4)</f>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
         <v>0.40629999999999999</v>
       </c>
-      <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>45861</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>50</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>400</v>
       </c>
-      <c r="E10" s="5">
-        <f>ROUND(C10/D10,4)</f>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>44</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>64</v>
       </c>
-      <c r="H10" s="5">
-        <f>ROUND(F10/G10,4)</f>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>45862</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>270</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>400</v>
       </c>
-      <c r="E11" s="5">
-        <f>ROUND(C11/D11,4)</f>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
         <v>0.67500000000000004</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>15</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>64</v>
       </c>
-      <c r="H11" s="5">
-        <f>ROUND(F11/G11,4)</f>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
         <v>0.2344</v>
       </c>
-      <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>45863</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>240</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>400</v>
       </c>
-      <c r="E12" s="5">
-        <f>ROUND(C12/D12,4)</f>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>15</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>64</v>
       </c>
-      <c r="H12" s="5">
-        <f>ROUND(F12/G12,4)</f>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
         <v>0.2344</v>
       </c>
-      <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>45867</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>95</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>400</v>
       </c>
-      <c r="E13" s="5">
-        <f>ROUND(C13/D13,4)</f>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
         <v>0.23749999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>56</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>64</v>
       </c>
-      <c r="H13" s="5">
-        <f>ROUND(F13/G13,4)</f>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>45868</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>135</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>400</v>
       </c>
-      <c r="E14" s="5">
-        <f>ROUND(C14/D14,4)</f>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
         <v>0.33750000000000002</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>36</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>64</v>
       </c>
-      <c r="H14" s="5">
-        <f>ROUND(F14/G14,4)</f>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
-      <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>45869</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>70</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>400</v>
       </c>
-      <c r="E15" s="5">
-        <f>ROUND(C15/D15,4)</f>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>37</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>64</v>
       </c>
-      <c r="H15" s="5">
-        <f>ROUND(F15/G15,4)</f>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
         <v>0.57809999999999995</v>
       </c>
-      <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>45906</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>120</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>400</v>
       </c>
-      <c r="E16" s="5">
-        <f>ROUND(C16/D16,4)</f>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>16</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>52</v>
       </c>
-      <c r="H16" s="5">
-        <f>ROUND(F16/G16,4)</f>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
         <v>0.30769999999999997</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I27" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H27">
@@ -4729,7 +6503,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4742,404 +6516,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>45872</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>100</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>600</v>
       </c>
-      <c r="E3" s="5">
-        <f>ROUND(C3/D3,4)</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E15" si="0">ROUND(C3/D3,4)</f>
         <v>0.16669999999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>39</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>40</v>
       </c>
-      <c r="H3" s="5">
-        <f>ROUND(F3/G3,4)</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H15" si="1">ROUND(F3/G3,4)</f>
         <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>45873</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>193</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>600</v>
       </c>
-      <c r="E4" s="5">
-        <f>ROUND(C4/D4,4)</f>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
         <v>0.32169999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>37</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>40</v>
       </c>
-      <c r="H4" s="5">
-        <f>ROUND(F4/G4,4)</f>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>45874</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>132</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>600</v>
       </c>
-      <c r="E5" s="5">
-        <f>ROUND(C5/D5,4)</f>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>39</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>40</v>
       </c>
-      <c r="H5" s="5">
-        <f>ROUND(F5/G5,4)</f>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>45874</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>101</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>600</v>
       </c>
-      <c r="E6" s="5">
-        <f>ROUND(C6/D6,4)</f>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
         <v>0.16830000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>40</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>40</v>
       </c>
-      <c r="H6" s="5">
-        <f>ROUND(F6/G6,4)</f>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>45875</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>226</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>600</v>
       </c>
-      <c r="E7" s="5">
-        <f>ROUND(C7/D7,4)</f>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
         <v>0.37669999999999998</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>28</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="H7" s="5">
-        <f>ROUND(F7/G7,4)</f>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>45876</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>600</v>
       </c>
-      <c r="E8" s="5">
-        <f>ROUND(C8/D8,4)</f>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>31</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>40</v>
       </c>
-      <c r="H8" s="5">
-        <f>ROUND(F8/G8,4)</f>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>45878</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>211</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>600</v>
       </c>
-      <c r="E9" s="5">
-        <f>ROUND(C9/D9,4)</f>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
         <v>0.35170000000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>23</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>40</v>
       </c>
-      <c r="H9" s="5">
-        <f>ROUND(F9/G9,4)</f>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>45878</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>200</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>600</v>
       </c>
-      <c r="E10" s="5">
-        <f>ROUND(C10/D10,4)</f>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
         <v>0.33329999999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>26</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>40</v>
       </c>
-      <c r="H10" s="5">
-        <f>ROUND(F10/G10,4)</f>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>45882</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>400</v>
       </c>
-      <c r="E11" s="5">
-        <f>ROUND(C11/D11,4)</f>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>28</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>40</v>
       </c>
-      <c r="H11" s="5">
-        <f>ROUND(F11/G11,4)</f>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>45883</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>120</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>400</v>
       </c>
-      <c r="E12" s="5">
-        <f>ROUND(C12/D12,4)</f>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>21</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>40</v>
       </c>
-      <c r="H12" s="5">
-        <f>ROUND(F12/G12,4)</f>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>45884</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>165</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>400</v>
       </c>
-      <c r="E13" s="5">
-        <f>ROUND(C13/D13,4)</f>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
         <v>0.41249999999999998</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>19</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>40</v>
       </c>
-      <c r="H13" s="5">
-        <f>ROUND(F13/G13,4)</f>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
         <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>45885</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>89</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>400</v>
       </c>
-      <c r="E14" s="5">
-        <f>ROUND(C14/D14,4)</f>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
         <v>0.2225</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>32</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>40</v>
       </c>
-      <c r="H14" s="5">
-        <f>ROUND(F14/G14,4)</f>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>45886</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>30</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>400</v>
       </c>
-      <c r="E15" s="5">
-        <f>ROUND(C15/D15,4)</f>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>32</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>40</v>
       </c>
-      <c r="H15" s="5">
-        <f>ROUND(F15/G15,4)</f>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
@@ -5151,4 +6925,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA3BA7-4415-45E5-BB91-D4B335FA1063}">
+  <dimension ref="A28:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.9140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.9140625" style="11" customWidth="1"/>
+    <col min="15" max="17" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.9140625" style="11" customWidth="1"/>
+    <col min="23" max="26" width="10.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="H28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10"/>
+      <c r="O28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45913</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>11145</v>
+      </c>
+      <c r="E30" s="1">
+        <v>28810</v>
+      </c>
+      <c r="F30" s="2">
+        <f>ROUND(D30/E30,4)</f>
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="5">
+        <v>45676</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>22486</v>
+      </c>
+      <c r="L30" s="1">
+        <v>61206</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" ref="M30" si="0">ROUND(K30/L30,4)</f>
+        <v>0.3674</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="5">
+        <v>45823</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>7954</v>
+      </c>
+      <c r="S30" s="1">
+        <v>28858</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" ref="T30" si="1">ROUND(R30/S30,4)</f>
+        <v>0.27560000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="5">
+        <v>45829</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>12719</v>
+      </c>
+      <c r="S31" s="1">
+        <v>30532</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" ref="T31" si="2">ROUND(R31/S31,4)</f>
+        <v>0.41660000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="O28:T28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/杂项/分数统计.xlsx
+++ b/杂项/分数统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Olympiad in Informatics\杂项\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC971AC-7338-4730-8190-5A19E67881EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D61E67-0265-4639-BCAE-144D0DDB9D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accoders" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +233,25 @@
       <name val="HarmonyOS Sans SC"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -326,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,6 +362,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,7 +378,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6039,8 +6070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6056,16 +6087,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -6074,22 +6105,22 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6100,23 +6131,23 @@
       <c r="B3" s="5">
         <v>45724</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>128</v>
       </c>
       <c r="D3" s="1">
         <v>600</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="15">
         <f t="shared" ref="E3:E16" si="0">ROUND(C3/D3,4)</f>
         <v>0.21329999999999999</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="13">
         <v>47</v>
       </c>
       <c r="G3" s="1">
         <v>60</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H16" si="1">ROUND(F3/G3,4)</f>
         <v>0.7833</v>
       </c>
@@ -6128,23 +6159,23 @@
       <c r="B4" s="5">
         <v>45731</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="12">
         <v>159</v>
       </c>
       <c r="D4" s="1">
         <v>600</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="15">
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="13">
         <v>36</v>
       </c>
       <c r="G4" s="1">
         <v>51</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="15">
         <f t="shared" si="1"/>
         <v>0.70589999999999997</v>
       </c>
@@ -6156,23 +6187,23 @@
       <c r="B5" s="5">
         <v>45759</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="12">
         <v>212</v>
       </c>
       <c r="D5" s="1">
         <v>600</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>0.3533</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="13">
         <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>49</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="15">
         <f t="shared" si="1"/>
         <v>0.61219999999999997</v>
       </c>
@@ -6184,23 +6215,23 @@
       <c r="B6" s="5">
         <v>45766</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="12">
         <v>112</v>
       </c>
       <c r="D6" s="1">
         <v>600</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>0.1867</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="13">
         <v>39</v>
       </c>
       <c r="G6" s="1">
         <v>49</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="15">
         <f t="shared" si="1"/>
         <v>0.79590000000000005</v>
       </c>
@@ -6212,23 +6243,23 @@
       <c r="B7" s="5">
         <v>45787</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="12">
         <v>158</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>0.26329999999999998</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="13">
         <v>31</v>
       </c>
       <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="15">
         <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
@@ -6240,23 +6271,23 @@
       <c r="B8" s="5">
         <v>45801</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="12">
         <v>371</v>
       </c>
       <c r="D8" s="1">
         <v>600</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>0.61829999999999996</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="13">
         <v>17</v>
       </c>
       <c r="G8" s="1">
         <v>41</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="15">
         <f t="shared" si="1"/>
         <v>0.41460000000000002</v>
       </c>
@@ -6268,23 +6299,23 @@
       <c r="B9" s="5">
         <v>45858</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="12">
         <v>165</v>
       </c>
       <c r="D9" s="1">
         <v>400</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>0.41249999999999998</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="13">
         <v>26</v>
       </c>
       <c r="G9" s="1">
         <v>64</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="15">
         <f t="shared" si="1"/>
         <v>0.40629999999999999</v>
       </c>
@@ -6296,23 +6327,23 @@
       <c r="B10" s="5">
         <v>45861</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="12">
         <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>400</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="13">
         <v>44</v>
       </c>
       <c r="G10" s="1">
         <v>64</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
@@ -6324,23 +6355,23 @@
       <c r="B11" s="5">
         <v>45862</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="12">
         <v>270</v>
       </c>
       <c r="D11" s="1">
         <v>400</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>0.67500000000000004</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="13">
         <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>64</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="15">
         <f t="shared" si="1"/>
         <v>0.2344</v>
       </c>
@@ -6352,23 +6383,23 @@
       <c r="B12" s="5">
         <v>45863</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="12">
         <v>240</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="13">
         <v>15</v>
       </c>
       <c r="G12" s="1">
         <v>64</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="15">
         <f t="shared" si="1"/>
         <v>0.2344</v>
       </c>
@@ -6380,23 +6411,23 @@
       <c r="B13" s="5">
         <v>45867</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="12">
         <v>95</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>0.23749999999999999</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="13">
         <v>56</v>
       </c>
       <c r="G13" s="1">
         <v>64</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="15">
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
@@ -6408,23 +6439,23 @@
       <c r="B14" s="5">
         <v>45868</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="12">
         <v>135</v>
       </c>
       <c r="D14" s="1">
         <v>400</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0.33750000000000002</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="13">
         <v>36</v>
       </c>
       <c r="G14" s="1">
         <v>64</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="15">
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
@@ -6436,23 +6467,23 @@
       <c r="B15" s="5">
         <v>45869</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="12">
         <v>70</v>
       </c>
       <c r="D15" s="1">
         <v>400</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="13">
         <v>37</v>
       </c>
       <c r="G15" s="1">
         <v>64</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="15">
         <f t="shared" si="1"/>
         <v>0.57809999999999995</v>
       </c>
@@ -6464,23 +6495,23 @@
       <c r="B16" s="5">
         <v>45906</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="12">
         <v>120</v>
       </c>
       <c r="D16" s="1">
         <v>400</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="13">
         <v>16</v>
       </c>
       <c r="G16" s="1">
         <v>52</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="15">
         <f t="shared" si="1"/>
         <v>0.30769999999999997</v>
       </c>
@@ -6503,7 +6534,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6516,16 +6547,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -6534,22 +6565,22 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6560,23 +6591,23 @@
       <c r="B3" s="5">
         <v>45872</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>100</v>
       </c>
       <c r="D3" s="1">
         <v>600</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="15">
         <f t="shared" ref="E3:E15" si="0">ROUND(C3/D3,4)</f>
         <v>0.16669999999999999</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="13">
         <v>39</v>
       </c>
       <c r="G3" s="1">
         <v>40</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H15" si="1">ROUND(F3/G3,4)</f>
         <v>0.97499999999999998</v>
       </c>
@@ -6588,23 +6619,23 @@
       <c r="B4" s="5">
         <v>45873</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="12">
         <v>193</v>
       </c>
       <c r="D4" s="1">
         <v>600</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="15">
         <f t="shared" si="0"/>
         <v>0.32169999999999999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="13">
         <v>37</v>
       </c>
       <c r="G4" s="1">
         <v>40</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="15">
         <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
@@ -6616,23 +6647,23 @@
       <c r="B5" s="5">
         <v>45874</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="12">
         <v>132</v>
       </c>
       <c r="D5" s="1">
         <v>600</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="13">
         <v>39</v>
       </c>
       <c r="G5" s="1">
         <v>40</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="15">
         <f t="shared" si="1"/>
         <v>0.97499999999999998</v>
       </c>
@@ -6644,23 +6675,23 @@
       <c r="B6" s="5">
         <v>45874</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="12">
         <v>101</v>
       </c>
       <c r="D6" s="1">
         <v>600</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>0.16830000000000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="13">
         <v>40</v>
       </c>
       <c r="G6" s="1">
         <v>40</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6672,23 +6703,23 @@
       <c r="B7" s="5">
         <v>45875</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="12">
         <v>226</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>0.37669999999999998</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="13">
         <v>28</v>
       </c>
       <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="15">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
@@ -6700,23 +6731,23 @@
       <c r="B8" s="5">
         <v>45876</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="12">
         <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>600</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="13">
         <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>40</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="15">
         <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
@@ -6728,23 +6759,23 @@
       <c r="B9" s="5">
         <v>45878</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="12">
         <v>211</v>
       </c>
       <c r="D9" s="1">
         <v>600</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>0.35170000000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="13">
         <v>23</v>
       </c>
       <c r="G9" s="1">
         <v>40</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="15">
         <f t="shared" si="1"/>
         <v>0.57499999999999996</v>
       </c>
@@ -6756,23 +6787,23 @@
       <c r="B10" s="5">
         <v>45878</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="12">
         <v>200</v>
       </c>
       <c r="D10" s="1">
         <v>600</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>0.33329999999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="13">
         <v>26</v>
       </c>
       <c r="G10" s="1">
         <v>40</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
@@ -6784,23 +6815,23 @@
       <c r="B11" s="5">
         <v>45882</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="12">
         <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>400</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="13">
         <v>28</v>
       </c>
       <c r="G11" s="1">
         <v>40</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="15">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
@@ -6812,23 +6843,23 @@
       <c r="B12" s="5">
         <v>45883</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="12">
         <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="13">
         <v>21</v>
       </c>
       <c r="G12" s="1">
         <v>40</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="15">
         <f t="shared" si="1"/>
         <v>0.52500000000000002</v>
       </c>
@@ -6840,23 +6871,23 @@
       <c r="B13" s="5">
         <v>45884</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="12">
         <v>165</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>0.41249999999999998</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="13">
         <v>19</v>
       </c>
       <c r="G13" s="1">
         <v>40</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="15">
         <f t="shared" si="1"/>
         <v>0.47499999999999998</v>
       </c>
@@ -6868,23 +6899,23 @@
       <c r="B14" s="5">
         <v>45885</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="12">
         <v>89</v>
       </c>
       <c r="D14" s="1">
         <v>400</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0.2225</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="13">
         <v>32</v>
       </c>
       <c r="G14" s="1">
         <v>40</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="15">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -6896,23 +6927,23 @@
       <c r="B15" s="5">
         <v>45886</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="12">
         <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>400</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="13">
         <v>32</v>
       </c>
       <c r="G15" s="1">
         <v>40</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="15">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -6931,7 +6962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA3BA7-4415-45E5-BB91-D4B335FA1063}">
   <dimension ref="A28:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -6941,44 +6972,44 @@
     <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.9140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="2.9140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.9140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="2.9140625" style="6" customWidth="1"/>
     <col min="15" max="17" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.9140625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="2.9140625" style="6" customWidth="1"/>
     <col min="23" max="26" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="H28" s="8" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="H28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="O28" s="8" t="s">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="O28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">

--- a/杂项/分数统计.xlsx
+++ b/杂项/分数统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Olympiad in Informatics\杂项\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D61E67-0265-4639-BCAE-144D0DDB9D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75FAB1-22F9-4767-9A45-FADAC6191118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accoders" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Accoders 模拟赛统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多校联训2025入营测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2025春季B层测试二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,25 +98,6 @@
   <si>
     <t>25-26上学期B层测试一</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多校联训2025测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多校联训2025测试3</t>
-  </si>
-  <si>
-    <t>多校联训2025测试4</t>
-  </si>
-  <si>
-    <t>多校联训2025测试6</t>
-  </si>
-  <si>
-    <t>多校联训2025测试7</t>
-  </si>
-  <si>
-    <t>多校联训2025测试8</t>
   </si>
   <si>
     <t>参赛总人数</t>
@@ -201,6 +178,74 @@
   </si>
   <si>
     <t>CodeForces div2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假多校联训2025测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假多校联训2025入营测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假多校联训2025测试3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假多校联训2025测试4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假多校联训2025测试6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假多校联训2025测试7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假多校联训2025测试8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">十一多校联训2025测试1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一多校联训2025测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一多校联训2025测试3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一多校联训2025测试4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP赛前集训专题一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP赛前集训专题二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP赛前集训测试一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP赛前集训专题三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP赛前集训专题四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP赛前集训测试二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,6 +408,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,18 +433,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,10 +544,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Accoders!$E$3:$E$16</c:f>
+              <c:f>Accoders!$E$3:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.21329999999999999</c:v>
                 </c:pt>
@@ -544,6 +589,36 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60429999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,10 +887,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Accoders!$H$3:$H$16</c:f>
+              <c:f>Accoders!$H$3:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.7833</c:v>
                 </c:pt>
@@ -857,6 +932,36 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.30769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.35289999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6068,452 +6173,732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="11.4140625" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>45724</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>128</v>
       </c>
       <c r="D3" s="1">
         <v>600</v>
       </c>
-      <c r="E3" s="15">
-        <f t="shared" ref="E3:E16" si="0">ROUND(C3/D3,4)</f>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E26" si="0">ROUND(C3/D3,4)</f>
         <v>0.21329999999999999</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="8">
         <v>47</v>
       </c>
       <c r="G3" s="1">
         <v>60</v>
       </c>
-      <c r="H3" s="15">
-        <f t="shared" ref="H3:H16" si="1">ROUND(F3/G3,4)</f>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H26" si="1">ROUND(F3/G3,4)</f>
         <v>0.7833</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>45731</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>159</v>
       </c>
       <c r="D4" s="1">
         <v>600</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <v>36</v>
       </c>
       <c r="G4" s="1">
         <v>51</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0.70589999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>45759</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>212</v>
       </c>
       <c r="D5" s="1">
         <v>600</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>0.3533</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>49</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <f t="shared" si="1"/>
         <v>0.61219999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
         <v>45766</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>112</v>
       </c>
       <c r="D6" s="1">
         <v>600</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>0.1867</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <v>39</v>
       </c>
       <c r="G6" s="1">
         <v>49</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>0.79590000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5">
         <v>45787</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>158</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>0.26329999999999998</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>31</v>
       </c>
       <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>45801</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>371</v>
       </c>
       <c r="D8" s="1">
         <v>600</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>0.61829999999999996</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="8">
         <v>17</v>
       </c>
       <c r="G8" s="1">
         <v>41</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0.41460000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5">
         <v>45858</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>165</v>
       </c>
       <c r="D9" s="1">
         <v>400</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>0.41249999999999998</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>26</v>
       </c>
       <c r="G9" s="1">
         <v>64</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>0.40629999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5">
         <v>45861</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>400</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <v>44</v>
       </c>
       <c r="G10" s="1">
         <v>64</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5">
         <v>45862</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>270</v>
       </c>
       <c r="D11" s="1">
         <v>400</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>0.67500000000000004</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>64</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>0.2344</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5">
         <v>45863</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>240</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <v>15</v>
       </c>
       <c r="G12" s="1">
         <v>64</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0.2344</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5">
         <v>45867</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>95</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0.23749999999999999</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>56</v>
       </c>
       <c r="G13" s="1">
         <v>64</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5">
         <v>45868</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>135</v>
       </c>
       <c r="D14" s="1">
         <v>400</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>0.33750000000000002</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="8">
         <v>36</v>
       </c>
       <c r="G14" s="1">
         <v>64</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5">
         <v>45869</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <v>70</v>
       </c>
       <c r="D15" s="1">
         <v>400</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <v>37</v>
       </c>
       <c r="G15" s="1">
         <v>64</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="10">
         <f t="shared" si="1"/>
         <v>0.57809999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>45906</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>120</v>
       </c>
       <c r="D16" s="1">
         <v>400</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="8">
         <v>16</v>
       </c>
       <c r="G16" s="1">
         <v>52</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0.30769999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45932</v>
+      </c>
+      <c r="C17" s="7">
+        <v>381</v>
+      </c>
+      <c r="D17" s="1">
+        <v>600</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F17" s="8">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1">
+        <v>127</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.14960000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45934</v>
+      </c>
+      <c r="C18" s="7">
+        <v>170</v>
+      </c>
+      <c r="D18" s="1">
+        <v>400</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F18" s="8">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1">
+        <v>133</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.30830000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45936</v>
+      </c>
+      <c r="C19" s="7">
+        <v>260</v>
+      </c>
+      <c r="D19" s="1">
+        <v>400</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="F19" s="8">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45937</v>
+      </c>
+      <c r="C20" s="7">
+        <v>358</v>
+      </c>
+      <c r="D20" s="1">
+        <v>600</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="F20" s="8">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1">
+        <v>108</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.3241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45948</v>
+      </c>
+      <c r="C21" s="7">
+        <v>405</v>
+      </c>
+      <c r="D21" s="1">
+        <v>800</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="F21" s="8">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1">
+        <v>46</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.36959999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45949</v>
+      </c>
+      <c r="C22" s="7">
+        <v>352</v>
+      </c>
+      <c r="D22" s="1">
+        <v>800</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="F22" s="8">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45950</v>
+      </c>
+      <c r="C23" s="7">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1">
+        <v>400</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="F23" s="8">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1">
+        <v>22</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
+        <v>0.68179999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45951</v>
+      </c>
+      <c r="C24" s="7">
+        <v>524</v>
+      </c>
+      <c r="D24" s="1">
+        <v>800</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>23</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
+        <v>0.13039999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45952</v>
+      </c>
+      <c r="C25" s="7">
+        <v>435</v>
+      </c>
+      <c r="D25" s="1">
+        <v>700</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>17</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29409999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45953</v>
+      </c>
+      <c r="C26" s="7">
+        <v>423</v>
+      </c>
+      <c r="D26" s="1">
+        <v>700</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="F26" s="8">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>17</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>0.35289999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6537,413 +6922,413 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <v>45872</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>100</v>
       </c>
       <c r="D3" s="1">
         <v>600</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E15" si="0">ROUND(C3/D3,4)</f>
         <v>0.16669999999999999</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="8">
         <v>39</v>
       </c>
       <c r="G3" s="1">
         <v>40</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H15" si="1">ROUND(F3/G3,4)</f>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>45873</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>193</v>
       </c>
       <c r="D4" s="1">
         <v>600</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>0.32169999999999999</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <v>37</v>
       </c>
       <c r="G4" s="1">
         <v>40</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5">
         <v>45874</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>132</v>
       </c>
       <c r="D5" s="1">
         <v>600</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>39</v>
       </c>
       <c r="G5" s="1">
         <v>40</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <f t="shared" si="1"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5">
         <v>45874</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>101</v>
       </c>
       <c r="D6" s="1">
         <v>600</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>0.16830000000000001</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <v>40</v>
       </c>
       <c r="G6" s="1">
         <v>40</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5">
         <v>45875</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>226</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>0.37669999999999998</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>28</v>
       </c>
       <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5">
         <v>45876</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>600</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="8">
         <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>40</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5">
         <v>45878</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>211</v>
       </c>
       <c r="D9" s="1">
         <v>600</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>0.35170000000000001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>23</v>
       </c>
       <c r="G9" s="1">
         <v>40</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5">
         <v>45878</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>200</v>
       </c>
       <c r="D10" s="1">
         <v>600</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>0.33329999999999999</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <v>26</v>
       </c>
       <c r="G10" s="1">
         <v>40</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>45882</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>400</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>28</v>
       </c>
       <c r="G11" s="1">
         <v>40</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <v>45883</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <v>21</v>
       </c>
       <c r="G12" s="1">
         <v>40</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <v>45884</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>165</v>
       </c>
       <c r="D13" s="1">
         <v>400</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0.41249999999999998</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>19</v>
       </c>
       <c r="G13" s="1">
         <v>40</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5">
         <v>45885</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>89</v>
       </c>
       <c r="D14" s="1">
         <v>400</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>0.2225</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="8">
         <v>32</v>
       </c>
       <c r="G14" s="1">
         <v>40</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <v>45886</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>400</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <v>32</v>
       </c>
       <c r="G15" s="1">
         <v>40</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="10">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -6966,52 +7351,52 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.9140625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.875" style="6" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.9140625" style="6" customWidth="1"/>
-    <col min="15" max="17" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.875" style="6" customWidth="1"/>
+    <col min="15" max="17" width="10.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.9140625" style="6" customWidth="1"/>
-    <col min="23" max="26" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="6" customWidth="1"/>
+    <col min="23" max="26" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="H28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="11"/>
-      <c r="O28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="11"/>
+    <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="H28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="O28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="15"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -7019,13 +7404,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -7037,13 +7422,13 @@
         <v>7</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>5</v>
@@ -7055,21 +7440,21 @@
         <v>7</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B30" s="5">
         <v>45913</v>
@@ -7088,7 +7473,7 @@
         <v>0.38679999999999998</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I30" s="5">
         <v>45676</v>
@@ -7107,7 +7492,7 @@
         <v>0.3674</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P30" s="5">
         <v>45823</v>
@@ -7126,9 +7511,9 @@
         <v>0.27560000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O31" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P31" s="5">
         <v>45829</v>
